--- a/FacebookPages.xlsx
+++ b/FacebookPages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>LINK</t>
   </si>
@@ -31,6 +31,24 @@
     <t>PAGE STATUS</t>
   </si>
   <si>
+    <t>https://www.facebook.com/risacookware</t>
+  </si>
+  <si>
+    <t>Risa Verified account</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>Kitchen/cooking</t>
+  </si>
+  <si>
+    <t>October 22, 2023</t>
+  </si>
+  <si>
+    <t>Not Active</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/SOICTDigitalMediaPublication</t>
   </si>
   <si>
@@ -46,7 +64,22 @@
     <t>2d</t>
   </si>
   <si>
-    <t>Not Active</t>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/rrose.chua19</t>
+  </si>
+  <si>
+    <t>Rose Ann Villanueva</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>Digital creator</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -429,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
@@ -479,6 +512,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/FacebookPages.xlsx
+++ b/FacebookPages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
   <si>
     <t>LINK</t>
   </si>
@@ -31,55 +31,295 @@
     <t>PAGE STATUS</t>
   </si>
   <si>
-    <t>https://www.facebook.com/risacookware</t>
-  </si>
-  <si>
-    <t>Risa Verified account</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>Kitchen/cooking</t>
-  </si>
-  <si>
-    <t>October 22, 2023</t>
+    <t>https://www.facebook.com/PresidentLeniRobredoSupporters</t>
+  </si>
+  <si>
+    <t>President Leni Robredo Supporters</t>
+  </si>
+  <si>
+    <t>19K</t>
+  </si>
+  <si>
+    <t>Political Organization</t>
+  </si>
+  <si>
+    <t>November 9, 2022</t>
   </si>
   <si>
     <t>Not Active</t>
   </si>
   <si>
-    <t>https://www.facebook.com/SOICTDigitalMediaPublication</t>
-  </si>
-  <si>
-    <t>ICTzen</t>
-  </si>
-  <si>
-    <t>3.5K</t>
-  </si>
-  <si>
-    <t>Education website</t>
+    <t>https://www.facebook.com/Kakampinks.sanjosecsfp</t>
+  </si>
+  <si>
+    <t>KAKAMPINK's TAYO - San Jose</t>
+  </si>
+  <si>
+    <t>16K</t>
+  </si>
+  <si>
+    <t>Personal blog</t>
+  </si>
+  <si>
+    <t>January 20</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CebuForChelDiokno</t>
+  </si>
+  <si>
+    <t>Ka-AKBAYAN Ni Chel sa Cebu 2025</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>Media/news company</t>
+  </si>
+  <si>
+    <t>April 7 at 7:35 PM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chelforpres</t>
+  </si>
+  <si>
+    <t>Chel Diokno For President Movement</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>Public figure</t>
+  </si>
+  <si>
+    <t>April 23, 2020</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100070093542402</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ApayaoParaKayLeni</t>
+  </si>
+  <si>
+    <t>Apayao Para Kay Leni Robredo</t>
+  </si>
+  <si>
+    <t>58K</t>
+  </si>
+  <si>
+    <t>Nonprofit organization</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100075626007483</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/IlonggoParaKayLeniRobredo</t>
+  </si>
+  <si>
+    <t>Ilonggo Para Kay Leni Robredo</t>
+  </si>
+  <si>
+    <t>11K</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>August 21, 2023</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/solidlenibicolalbay</t>
+  </si>
+  <si>
+    <t>SOLID LENI BICOL ALBAY</t>
+  </si>
+  <si>
+    <t>Community Center</t>
   </si>
   <si>
     <t>2d</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/rrose.chua19</t>
-  </si>
-  <si>
-    <t>Rose Ann Villanueva</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>Digital creator</t>
-  </si>
-  <si>
-    <t>1h</t>
+    <t>https://www.facebook.com/YoungGlobalFilipinos</t>
+  </si>
+  <si>
+    <t>Young Global Filipinos for Leni</t>
+  </si>
+  <si>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>Fan page</t>
+  </si>
+  <si>
+    <t>March 16</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/yardly811</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100072310573519</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/OnePinkFight</t>
+  </si>
+  <si>
+    <t>Kulay Rosas ang Bukas</t>
+  </si>
+  <si>
+    <t>March 26 at 10:18 PM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/supportabicolandia</t>
+  </si>
+  <si>
+    <t>KULAY ROSAS ANG BUKAS</t>
+  </si>
+  <si>
+    <t>March 17</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kulayrosasangbukaskayleni</t>
+  </si>
+  <si>
+    <t>Kulay Rosas Ang Bukas</t>
+  </si>
+  <si>
+    <t>6.3K</t>
+  </si>
+  <si>
+    <t>Media Critic</t>
+  </si>
+  <si>
+    <t>June 15, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kakampinklenirobredopresident</t>
+  </si>
+  <si>
+    <t>Kulay Rosas Pa rin ang Bukas</t>
+  </si>
+  <si>
+    <t>4.5K</t>
+  </si>
+  <si>
+    <t>February 25</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100082438583919</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100083196797901</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100077103501805</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PagibigAyKulayRosas</t>
+  </si>
+  <si>
+    <t>Kulay Rosas ang Pag-ibig</t>
+  </si>
+  <si>
+    <t>May 7, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=100080445219138</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RosasAngKulay</t>
+  </si>
+  <si>
+    <t>Angat Buhay Supporters</t>
+  </si>
+  <si>
+    <t>4.4K</t>
+  </si>
+  <si>
+    <t>April 10 at 9:05 PM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kulayrosasnabukas</t>
+  </si>
+  <si>
+    <t>3.3K</t>
+  </si>
+  <si>
+    <t>October 5, 2023</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MyPresidentLeniRobredo</t>
+  </si>
+  <si>
+    <t>Let Leni Lead</t>
+  </si>
+  <si>
+    <t>Political Candidate</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PinkNaLangga</t>
+  </si>
+  <si>
+    <t>PINKnalangga: Iloilo Youth Network</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pinkmovementiloilo</t>
+  </si>
+  <si>
+    <t>Youth Pink Movement</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>February 11</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/OneJamindan</t>
+  </si>
+  <si>
+    <t>One Jamindan</t>
+  </si>
+  <si>
+    <t>Public &amp; Government Service</t>
+  </si>
+  <si>
+    <t>23h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TeddyBaguilatOfficial</t>
+  </si>
+  <si>
+    <t>Teddy Baguilat</t>
+  </si>
+  <si>
+    <t>85K</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HumansOfPinas</t>
+  </si>
+  <si>
+    <t>Humans of Pinas</t>
+  </si>
+  <si>
+    <t>46K</t>
+  </si>
+  <si>
+    <t>February 3</t>
   </si>
 </sst>
 </file>
@@ -462,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
@@ -528,28 +768,568 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/FacebookPages.xlsx
+++ b/FacebookPages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="352">
   <si>
     <t>LINK</t>
   </si>
@@ -31,295 +31,1042 @@
     <t>PAGE STATUS</t>
   </si>
   <si>
-    <t>https://www.facebook.com/PresidentLeniRobredoSupporters</t>
-  </si>
-  <si>
-    <t>President Leni Robredo Supporters</t>
-  </si>
-  <si>
-    <t>19K</t>
+    <t>https://www.facebook.com/283945495056459</t>
+  </si>
+  <si>
+    <t>Atty. Leni Robredo Verified account</t>
+  </si>
+  <si>
+    <t>3300000</t>
+  </si>
+  <si>
+    <t>Public figure</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/386570178125149</t>
+  </si>
+  <si>
+    <t>Senator Win Gatchalian Verified account</t>
+  </si>
+  <si>
+    <t>2400000</t>
+  </si>
+  <si>
+    <t>Government Official</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/48622973199</t>
+  </si>
+  <si>
+    <t>Kiko Pangilinan Verified account</t>
+  </si>
+  <si>
+    <t>1200000</t>
+  </si>
+  <si>
+    <t>Personal blog</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/135261979819373</t>
+  </si>
+  <si>
+    <t>Antonio "Sonny" Trillanes IV Verified account</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/735520873284594</t>
+  </si>
+  <si>
+    <t>Atty. Chel Diokno Verified account</t>
+  </si>
+  <si>
+    <t>Lawyer &amp; Law Firm</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/148362681967446</t>
+  </si>
+  <si>
+    <t>Bam Aquino Verified account</t>
+  </si>
+  <si>
+    <t>1100000</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/234888039863581</t>
+  </si>
+  <si>
+    <t>TANGINA THIS!</t>
+  </si>
+  <si>
+    <t>652000</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1766600543621951</t>
+  </si>
+  <si>
+    <t>M.A. Buendía HD</t>
+  </si>
+  <si>
+    <t>516000</t>
+  </si>
+  <si>
+    <t>Blogger</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/103677282013061</t>
+  </si>
+  <si>
+    <t>Lawyers for Leni</t>
+  </si>
+  <si>
+    <t>464000</t>
+  </si>
+  <si>
+    <t>Cause</t>
+  </si>
+  <si>
+    <t>February 22</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/109129738511383</t>
+  </si>
+  <si>
+    <t>Angat Buhay Verified account</t>
+  </si>
+  <si>
+    <t>769000</t>
+  </si>
+  <si>
+    <t>Non-Governmental Organization (NGO)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/762579570531048</t>
+  </si>
+  <si>
+    <t>Roxas Robredo 2016</t>
+  </si>
+  <si>
+    <t>398000</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>May 17, 2019</t>
+  </si>
+  <si>
+    <t>Not Active</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/809073886155519</t>
+  </si>
+  <si>
+    <t>Tarantadong Kalbo Verified account</t>
+  </si>
+  <si>
+    <t>675000</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/430929753772022</t>
+  </si>
+  <si>
+    <t>Women for Leni</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>August 18, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1453221048306604</t>
+  </si>
+  <si>
+    <t>Filipinos for Good Governance</t>
+  </si>
+  <si>
+    <t>283000</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1719205271478830</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/252329695697156</t>
+  </si>
+  <si>
+    <t>Leni For You</t>
+  </si>
+  <si>
+    <t>231000</t>
+  </si>
+  <si>
+    <t>February 11</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/545131282283360</t>
+  </si>
+  <si>
+    <t>Juan Nationalist</t>
+  </si>
+  <si>
+    <t>255000</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/153592385279585</t>
+  </si>
+  <si>
+    <t>Malacañang Events and Catering Services</t>
+  </si>
+  <si>
+    <t>278000</t>
+  </si>
+  <si>
+    <t>Party Entertainment Service</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1399075467027769</t>
+  </si>
+  <si>
+    <t>Trending Garden</t>
+  </si>
+  <si>
+    <t>240000</t>
+  </si>
+  <si>
+    <t>Digital creator</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1499852983661200</t>
+  </si>
+  <si>
+    <t>We Support Atty. Leni Robredo</t>
+  </si>
+  <si>
+    <t>206000</t>
+  </si>
+  <si>
+    <t>March 14</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/334019320334212</t>
+  </si>
+  <si>
+    <t>Richard Foronda Heydarian Verified account</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/101963552184991</t>
+  </si>
+  <si>
+    <t>Team Leni Robredo - Japan</t>
+  </si>
+  <si>
+    <t>182000</t>
+  </si>
+  <si>
+    <t>Fan page</t>
+  </si>
+  <si>
+    <t>Fan Page</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1532802903692196</t>
+  </si>
+  <si>
+    <t>BUILD Pilipinas</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>Community Organization</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/101472058903883</t>
+  </si>
+  <si>
+    <t>Engineers for Leni</t>
+  </si>
+  <si>
+    <t>176000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/220068746680788</t>
+  </si>
+  <si>
+    <t>Team Leni Robredo  -  UAE</t>
+  </si>
+  <si>
+    <t>159000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/106864962733835</t>
+  </si>
+  <si>
+    <t>OVP Pilipinas Verified account</t>
+  </si>
+  <si>
+    <t>198000</t>
+  </si>
+  <si>
+    <t>Government organization</t>
+  </si>
+  <si>
+    <t>July 17, 2023</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/627102207473914</t>
+  </si>
+  <si>
+    <t>Aling Leni’s Sari Sari Stories</t>
+  </si>
+  <si>
+    <t>168000</t>
+  </si>
+  <si>
+    <t>June 28, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100940055706240</t>
+  </si>
+  <si>
+    <t>Oposisyon 2025</t>
+  </si>
+  <si>
+    <t>173000</t>
+  </si>
+  <si>
+    <t>Youth Organization</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1481400535477106</t>
+  </si>
+  <si>
+    <t>Bantay ng Bayan at Mamamayan  (Bantay ng Bayan)</t>
+  </si>
+  <si>
+    <t>144000</t>
+  </si>
+  <si>
+    <t>August 28, 2024</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/103371958838287</t>
+  </si>
+  <si>
+    <t>Robredo People's Council</t>
+  </si>
+  <si>
+    <t>163000</t>
+  </si>
+  <si>
+    <t>March 20 at 6:15 PM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1624618274297104</t>
+  </si>
+  <si>
+    <t>Fact Check Philippines</t>
+  </si>
+  <si>
+    <t>166000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100133975806915</t>
+  </si>
+  <si>
+    <t>DFLK</t>
+  </si>
+  <si>
+    <t>136000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1223547887661100</t>
+  </si>
+  <si>
+    <t>Dapat Si Leni</t>
+  </si>
+  <si>
+    <t>151000</t>
+  </si>
+  <si>
+    <t>March 31 at 10:37 PM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1959704394136944</t>
+  </si>
+  <si>
+    <t>iMPACT Leadership</t>
+  </si>
+  <si>
+    <t>267000</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/548470925557483</t>
+  </si>
+  <si>
+    <t>Main Pop Girls</t>
+  </si>
+  <si>
+    <t>157000</t>
+  </si>
+  <si>
+    <t>Entertainment website</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/107949001660971</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100064523416264</t>
+  </si>
+  <si>
+    <t>Millennials'  Voice</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/104817765364945</t>
+  </si>
+  <si>
+    <t>CZ Properties  (Official Page)</t>
+  </si>
+  <si>
+    <t>117000</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1410509912553154</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/110596851331843</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/108831464003545</t>
+  </si>
+  <si>
+    <t>We Are Millennials</t>
+  </si>
+  <si>
+    <t>229000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/107358815063687</t>
+  </si>
+  <si>
+    <t>Mga Gwapo For Leni</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/127578723940024</t>
+  </si>
+  <si>
+    <t>The Bunny Baker</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>November 4, 2024</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/102413072198938</t>
+  </si>
+  <si>
+    <t>Team VINZ WORLD</t>
+  </si>
+  <si>
+    <t>Video creator</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/111160758012914</t>
+  </si>
+  <si>
+    <t>LENI Robredo Accomplishments</t>
+  </si>
+  <si>
+    <t>99000</t>
+  </si>
+  <si>
+    <t>February 27</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/352647514834781</t>
+  </si>
+  <si>
+    <t>Filipino's Patriotism</t>
+  </si>
+  <si>
+    <t>232000</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100679972581546</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/107209371918167</t>
+  </si>
+  <si>
+    <t>The Robredos</t>
+  </si>
+  <si>
+    <t>246000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/226319419727</t>
+  </si>
+  <si>
+    <t>Pinky  Amador Verified account</t>
+  </si>
+  <si>
+    <t>Artist · Singer · Model</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/46361808553</t>
+  </si>
+  <si>
+    <t>Kaya Natin! Movement for Good Governance and Ethical Leadership Verified account</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/101532182260356</t>
+  </si>
+  <si>
+    <t>Thomasians for Good Governance</t>
+  </si>
+  <si>
+    <t>95000</t>
+  </si>
+  <si>
+    <t>March 23 at 11:33 AM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/104177065272638</t>
+  </si>
+  <si>
+    <t>Tarlakenyo Para Kay Leni-Kiko</t>
+  </si>
+  <si>
+    <t>88000</t>
+  </si>
+  <si>
+    <t>Nonprofit organization</t>
+  </si>
+  <si>
+    <t>January 30, 2024</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/102933402039962</t>
+  </si>
+  <si>
+    <t>Miko Manapul</t>
+  </si>
+  <si>
+    <t>87000</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>May 1, 2023</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1533336380303911</t>
+  </si>
+  <si>
+    <t>Tamaraws for Leni-Kiko</t>
+  </si>
+  <si>
+    <t>85000</t>
+  </si>
+  <si>
+    <t>May 5, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/101252295691457</t>
+  </si>
+  <si>
+    <t>Cavite for Kiko Bam</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>March 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100269338236548</t>
+  </si>
+  <si>
+    <t>VLOG NG PASIG</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/793306767736974</t>
+  </si>
+  <si>
+    <t>Memes ng galit sa korap na gobyerno, mamamatay tao, at sarili</t>
+  </si>
+  <si>
+    <t>119000</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/105543081646650</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/109604731444541</t>
+  </si>
+  <si>
+    <t>Tayo Naman</t>
+  </si>
+  <si>
+    <t>76000</t>
+  </si>
+  <si>
+    <t>October 10, 2024</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/363825296778</t>
+  </si>
+  <si>
+    <t>Pink Positive Movement</t>
+  </si>
+  <si>
+    <t>86000</t>
+  </si>
+  <si>
+    <t>May 7, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/125881827575953</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/104275467600686</t>
+  </si>
+  <si>
+    <t>Cartoonist ZACH</t>
+  </si>
+  <si>
+    <t>172000</t>
+  </si>
+  <si>
+    <t>Satire/Parody</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/284057444979725</t>
+  </si>
+  <si>
+    <t>Team Leni Robredo Zamboanga Sibugay</t>
+  </si>
+  <si>
+    <t>78000</t>
+  </si>
+  <si>
+    <t>January 14</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/350597539354687</t>
+  </si>
+  <si>
+    <t>Kapampangan Marangal • Kapampangan Manalakaran</t>
+  </si>
+  <si>
+    <t>March 31 at 6:50 PM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/107315105004505</t>
+  </si>
+  <si>
+    <t>Team Leni Robredo - Hong Kong</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100050597344459</t>
+  </si>
+  <si>
+    <t>Kapitan Tambay</t>
+  </si>
+  <si>
+    <t>145000</t>
+  </si>
+  <si>
+    <t>23h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/111113518069363</t>
+  </si>
+  <si>
+    <t>KAY LENI TAYO</t>
+  </si>
+  <si>
+    <t>January 30</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100830299104992</t>
+  </si>
+  <si>
+    <t>Angat Kabataang Aktibo ng Pasig</t>
+  </si>
+  <si>
+    <t>77000</t>
+  </si>
+  <si>
+    <t>October 10, 2023</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/108957324600114</t>
+  </si>
+  <si>
+    <t>Siklab Lingkod Bikol SLB</t>
+  </si>
+  <si>
+    <t>83000</t>
+  </si>
+  <si>
+    <t>6d</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/101142139018591</t>
+  </si>
+  <si>
+    <t>When in Pangasinan</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/1144831935597522</t>
+  </si>
+  <si>
+    <t>Thinking Millennials</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/274448415322</t>
+  </si>
+  <si>
+    <t>Liberal Party of the Philippines Verified account</t>
+  </si>
+  <si>
+    <t>98000</t>
+  </si>
+  <si>
+    <t>Political Party</t>
+  </si>
+  <si>
+    <t>April 7 at 9:31 PM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/103772015393701</t>
+  </si>
+  <si>
+    <t>Team Leni Robredo - Canada</t>
+  </si>
+  <si>
+    <t>71000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/114538963599260</t>
+  </si>
+  <si>
+    <t>Metro Manila Movement for Leni Robredo - MMMLR</t>
+  </si>
+  <si>
+    <t>72000</t>
+  </si>
+  <si>
+    <t>March 11</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/108446048298348</t>
+  </si>
+  <si>
+    <t>Angat Buhay - Gamers</t>
+  </si>
+  <si>
+    <t>69000</t>
+  </si>
+  <si>
+    <t>January 16, 2023</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/106816235171150</t>
+  </si>
+  <si>
+    <t>Millenials for Leni Kiko</t>
+  </si>
+  <si>
+    <t>70000</t>
+  </si>
+  <si>
+    <t>March 7</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/104365342025045</t>
+  </si>
+  <si>
+    <t>Creatives for Leni</t>
+  </si>
+  <si>
+    <t>October 11, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/107050801844589</t>
+  </si>
+  <si>
+    <t>TAYO for LENI - Taytay Youth For Leni</t>
+  </si>
+  <si>
+    <t>67000</t>
+  </si>
+  <si>
+    <t>March 24, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100072368890781</t>
+  </si>
+  <si>
+    <t>LGBTQIA+ for Leni</t>
   </si>
   <si>
     <t>Political Organization</t>
   </si>
   <si>
-    <t>November 9, 2022</t>
-  </si>
-  <si>
-    <t>Not Active</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kakampinks.sanjosecsfp</t>
-  </si>
-  <si>
-    <t>KAKAMPINK's TAYO - San Jose</t>
-  </si>
-  <si>
-    <t>16K</t>
-  </si>
-  <si>
-    <t>Personal blog</t>
-  </si>
-  <si>
-    <t>January 20</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CebuForChelDiokno</t>
-  </si>
-  <si>
-    <t>Ka-AKBAYAN Ni Chel sa Cebu 2025</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>Media/news company</t>
-  </si>
-  <si>
-    <t>April 7 at 7:35 PM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/chelforpres</t>
-  </si>
-  <si>
-    <t>Chel Diokno For President Movement</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>Public figure</t>
-  </si>
-  <si>
-    <t>April 23, 2020</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100070093542402</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ApayaoParaKayLeni</t>
-  </si>
-  <si>
-    <t>Apayao Para Kay Leni Robredo</t>
-  </si>
-  <si>
-    <t>58K</t>
-  </si>
-  <si>
-    <t>Nonprofit organization</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100075626007483</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/IlonggoParaKayLeniRobredo</t>
-  </si>
-  <si>
-    <t>Ilonggo Para Kay Leni Robredo</t>
-  </si>
-  <si>
-    <t>11K</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>August 21, 2023</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/solidlenibicolalbay</t>
-  </si>
-  <si>
-    <t>SOLID LENI BICOL ALBAY</t>
-  </si>
-  <si>
-    <t>Community Center</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/YoungGlobalFilipinos</t>
-  </si>
-  <si>
-    <t>Young Global Filipinos for Leni</t>
-  </si>
-  <si>
-    <t>13K</t>
-  </si>
-  <si>
-    <t>Fan page</t>
-  </si>
-  <si>
-    <t>March 16</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/yardly811</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100072310573519</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/OnePinkFight</t>
-  </si>
-  <si>
-    <t>Kulay Rosas ang Bukas</t>
-  </si>
-  <si>
-    <t>March 26 at 10:18 PM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/supportabicolandia</t>
-  </si>
-  <si>
-    <t>KULAY ROSAS ANG BUKAS</t>
-  </si>
-  <si>
-    <t>March 17</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kulayrosasangbukaskayleni</t>
-  </si>
-  <si>
-    <t>Kulay Rosas Ang Bukas</t>
-  </si>
-  <si>
-    <t>6.3K</t>
-  </si>
-  <si>
-    <t>Media Critic</t>
-  </si>
-  <si>
-    <t>June 15, 2022</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kakampinklenirobredopresident</t>
-  </si>
-  <si>
-    <t>Kulay Rosas Pa rin ang Bukas</t>
-  </si>
-  <si>
-    <t>4.5K</t>
-  </si>
-  <si>
-    <t>February 25</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100082438583919</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100083196797901</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100077103501805</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PagibigAyKulayRosas</t>
-  </si>
-  <si>
-    <t>Kulay Rosas ang Pag-ibig</t>
-  </si>
-  <si>
-    <t>May 7, 2022</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/profile.php?id=100080445219138</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RosasAngKulay</t>
-  </si>
-  <si>
-    <t>Angat Buhay Supporters</t>
-  </si>
-  <si>
-    <t>4.4K</t>
-  </si>
-  <si>
-    <t>April 10 at 9:05 PM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kulayrosasnabukas</t>
-  </si>
-  <si>
-    <t>3.3K</t>
-  </si>
-  <si>
-    <t>October 5, 2023</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MyPresidentLeniRobredo</t>
-  </si>
-  <si>
-    <t>Let Leni Lead</t>
-  </si>
-  <si>
-    <t>Political Candidate</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PinkNaLangga</t>
-  </si>
-  <si>
-    <t>PINKnalangga: Iloilo Youth Network</t>
-  </si>
-  <si>
-    <t>Cause</t>
-  </si>
-  <si>
-    <t>4d</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/pinkmovementiloilo</t>
-  </si>
-  <si>
-    <t>Youth Pink Movement</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>February 11</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/OneJamindan</t>
-  </si>
-  <si>
-    <t>One Jamindan</t>
-  </si>
-  <si>
-    <t>Public &amp; Government Service</t>
-  </si>
-  <si>
-    <t>23h</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TeddyBaguilatOfficial</t>
-  </si>
-  <si>
-    <t>Teddy Baguilat</t>
-  </si>
-  <si>
-    <t>85K</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/HumansOfPinas</t>
-  </si>
-  <si>
-    <t>Humans of Pinas</t>
-  </si>
-  <si>
-    <t>46K</t>
-  </si>
-  <si>
-    <t>February 3</t>
+    <t>June 1, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/327352677340899</t>
+  </si>
+  <si>
+    <t>Angat Buhay Ateneans</t>
+  </si>
+  <si>
+    <t>63000</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>September 21, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/620277008126693</t>
+  </si>
+  <si>
+    <t>Leni Robredo Volunteers</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>May 11, 2022</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100674058226059</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/478549215667243</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/473390996106078</t>
+  </si>
+  <si>
+    <t>Lady Gagita</t>
+  </si>
+  <si>
+    <t>84000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/108028938341757</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100790978952138</t>
+  </si>
+  <si>
+    <t>Batangueño Para Kay Leni-Kiko</t>
+  </si>
+  <si>
+    <t>62000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100063612435835</t>
+  </si>
+  <si>
+    <t>Ibanag In the City</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/224839540264</t>
+  </si>
+  <si>
+    <t>Alex Lacson Verified account</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/307153696544541</t>
+  </si>
+  <si>
+    <t>Team Leni Kiko Verified account</t>
+  </si>
+  <si>
+    <t>73000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/109930261356445</t>
+  </si>
+  <si>
+    <t>Uno Bulakenyo</t>
+  </si>
+  <si>
+    <t>58000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100580692450350</t>
+  </si>
+  <si>
+    <t>ArtShirts for a Cause</t>
+  </si>
+  <si>
+    <t>57000</t>
+  </si>
+  <si>
+    <t>Product/service</t>
+  </si>
+  <si>
+    <t>July 18, 2023</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/120559010200330</t>
+  </si>
+  <si>
+    <t>Laguna for Leni &amp; Kiko</t>
+  </si>
+  <si>
+    <t>March 30 at 7:50 AM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/102390902284289</t>
+  </si>
+  <si>
+    <t>Ilocos Norte Tropang Angat</t>
+  </si>
+  <si>
+    <t>59000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/105718818794852</t>
+  </si>
+  <si>
+    <t>Wilmas Kitchen Vlogs</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/109109265012666</t>
+  </si>
+  <si>
+    <t>Eddison B Verified account</t>
+  </si>
+  <si>
+    <t>312000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/274524342980754</t>
+  </si>
+  <si>
+    <t>ARMY of TRUTH Seekers</t>
+  </si>
+  <si>
+    <t>64000</t>
+  </si>
+  <si>
+    <t>April 9 at 11:43 AM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/106876404036860</t>
+  </si>
+  <si>
+    <t>Patrick Aquino</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/796567933692037</t>
+  </si>
+  <si>
+    <t>Doll Up Mari</t>
+  </si>
+  <si>
+    <t>March 19</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/111367587228446</t>
+  </si>
+  <si>
+    <t>Michael Apacible Bulletin</t>
+  </si>
+  <si>
+    <t>79000</t>
   </si>
 </sst>
 </file>
@@ -702,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F100"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
@@ -748,7 +1495,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -768,7 +1515,7 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -788,7 +1535,7 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -803,92 +1550,92 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -900,35 +1647,35 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -937,398 +1684,1778 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
       <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
+        <v>101</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
+        <v>120</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" t="s">
+        <v>236</v>
+      </c>
+      <c r="C64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" t="s">
         <v>100</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E66" t="s">
         <v>101</v>
       </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>260</v>
+      </c>
+      <c r="B71" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" t="s">
+        <v>266</v>
+      </c>
+      <c r="D73" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73" t="s">
+        <v>268</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" t="s">
+        <v>275</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>279</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" t="s">
+        <v>282</v>
+      </c>
+      <c r="D77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" t="s">
+        <v>283</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" t="s">
+        <v>286</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" t="s">
+        <v>289</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
+        <v>293</v>
+      </c>
+      <c r="E80" t="s">
+        <v>294</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" t="s">
+        <v>296</v>
+      </c>
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" t="s">
+        <v>298</v>
+      </c>
+      <c r="E81" t="s">
+        <v>299</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" t="s">
+        <v>301</v>
+      </c>
+      <c r="C82" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" t="s">
+        <v>70</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E84" t="s">
+        <v>70</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>309</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>310</v>
+      </c>
+      <c r="B87" t="s">
+        <v>311</v>
+      </c>
+      <c r="C87" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>313</v>
+      </c>
+      <c r="B88" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>315</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>316</v>
+      </c>
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>259</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90" t="s">
+        <v>293</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" t="s">
+        <v>323</v>
+      </c>
+      <c r="D91" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92" t="s">
+        <v>326</v>
+      </c>
+      <c r="D92" t="s">
+        <v>327</v>
+      </c>
+      <c r="E92" t="s">
+        <v>328</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>329</v>
+      </c>
+      <c r="B93" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" t="s">
+        <v>331</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" t="s">
+        <v>333</v>
+      </c>
+      <c r="C94" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>335</v>
+      </c>
+      <c r="B95" t="s">
+        <v>336</v>
+      </c>
+      <c r="C95" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" t="s">
+        <v>87</v>
+      </c>
+      <c r="E95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>337</v>
+      </c>
+      <c r="B96" t="s">
+        <v>338</v>
+      </c>
+      <c r="C96" t="s">
+        <v>339</v>
+      </c>
+      <c r="D96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" t="s">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" t="s">
+        <v>341</v>
+      </c>
+      <c r="C97" t="s">
+        <v>342</v>
+      </c>
+      <c r="D97" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97" t="s">
+        <v>343</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" t="s">
+        <v>342</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
+        <v>31</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" t="s">
+        <v>347</v>
+      </c>
+      <c r="C99" t="s">
+        <v>334</v>
+      </c>
+      <c r="D99" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" t="s">
+        <v>348</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" t="s">
+        <v>350</v>
+      </c>
+      <c r="C100" t="s">
+        <v>351</v>
+      </c>
+      <c r="D100" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" t="s">
+        <v>181</v>
+      </c>
+      <c r="F100" t="s">
         <v>11</v>
       </c>
     </row>
